--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_171.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_171.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:07.020000', '0:00:13.540000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:36.400000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4083333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'D', 'A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'G/2', 'D/5', 'A', 'D', 'A']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.452358, 39.410634)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.804648, 59.368185)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.26, 12.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
